--- a/day4_cheeky.xlsx
+++ b/day4_cheeky.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t xml:space="preserve">numToCount</t>
   </si>
@@ -49,10 +49,13 @@
     <t xml:space="preserve">&lt;&lt;&lt;&lt; When this is 99, we found the last winner</t>
   </si>
   <si>
-    <t xml:space="preserve">MAKE SURE TO SET numToCount so that it’s a winner!</t>
+    <t xml:space="preserve">MAKE SURE TO SET numToCount higher so that the last is a winner!</t>
   </si>
   <si>
     <t xml:space="preserve">LastNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The value was</t>
   </si>
   <si>
     <t xml:space="preserve">Sum</t>
@@ -61,10 +64,16 @@
     <t xml:space="preserve">Answer</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;&lt;&lt; So this was my answer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Put absolute loser here</t>
   </si>
   <si>
     <t xml:space="preserve">SumTable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&lt; SO this was my answer</t>
   </si>
   <si>
     <t xml:space="preserve">PUT WINNER HERE</t>
@@ -228,7 +237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -257,10 +266,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -270,6 +275,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -285,6 +298,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -295,6 +312,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -457,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -647,12 +668,10 @@
         <v>5</v>
       </c>
       <c r="Q7" s="6"/>
-      <c r="R7" s="7"/>
+      <c r="R7" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="S7" s="7"/>
-      <c r="T7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="U7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="n">
@@ -678,19 +697,11 @@
       <c r="Q8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="7" t="n">
-        <f aca="false">COUNTIF(M:M,5)</f>
-        <v>213</v>
-      </c>
-      <c r="S8" s="7" t="n">
-        <f aca="false">COUNTIF(N:N,5)</f>
-        <v>205</v>
-      </c>
-      <c r="T8" s="9" t="n">
-        <f aca="false">SUM(R8:S8)</f>
-        <v>418</v>
-      </c>
-      <c r="U8" s="10"/>
+      <c r="R8" s="8" t="n">
+        <f aca="false">SUM(O:O)</f>
+        <v>99</v>
+      </c>
+      <c r="S8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -743,16 +754,13 @@
       <c r="Q9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="9" t="n">
-        <f aca="false">MATCH(5,M:M,0)</f>
-        <v>4</v>
-      </c>
-      <c r="S9" s="9" t="n">
-        <f aca="false">MATCH(5,N:N,0)</f>
+      <c r="R9" s="8" t="n">
+        <f aca="false">MATCH(1,O:O,0)</f>
         <v>3</v>
       </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -799,10 +807,10 @@
         <v>5</v>
       </c>
       <c r="Q10" s="6"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="10"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -848,16 +856,16 @@
         <f aca="false">J14</f>
         <v>4</v>
       </c>
-      <c r="Q11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="R11" s="12" t="n">
+      <c r="Q11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" s="13" t="n">
         <f aca="false">MAX(M:N)</f>
         <v>5</v>
       </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -1026,16 +1034,16 @@
         <f aca="false">COUNTIF(M15:N19,5)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="6" t="n">
+      <c r="Q15" s="15" t="n">
         <f aca="false">SUM(O:O)</f>
-        <v>100</v>
-      </c>
-      <c r="R15" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="R15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -1084,11 +1092,11 @@
       <c r="Q16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="R16" s="15" t="e">
+      <c r="R16" s="17" t="n">
         <f aca="false">MATCH(0,O:O,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U16" s="10"/>
+        <v>285</v>
+      </c>
+      <c r="U16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -1135,7 +1143,7 @@
         <v>5</v>
       </c>
       <c r="Q17" s="6"/>
-      <c r="U17" s="10"/>
+      <c r="U17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -1181,13 +1189,13 @@
         <f aca="false">K20</f>
         <v>4</v>
       </c>
-      <c r="Q18" s="16" t="s">
+      <c r="Q18" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -2182,11 +2190,11 @@
       </c>
       <c r="L42" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,E42)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="0" t="n">
         <f aca="false">SUM(H42:L42)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N42" s="0" t="n">
         <f aca="false">K44</f>
@@ -2235,7 +2243,7 @@
       </c>
       <c r="N43" s="0" t="n">
         <f aca="false">L44</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2257,7 +2265,7 @@
       </c>
       <c r="L44" s="0" t="n">
         <f aca="false">SUM(L39:L43)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,7 +2359,7 @@
       </c>
       <c r="N46" s="0" t="n">
         <f aca="false">I50</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,7 +2429,7 @@
       </c>
       <c r="I48" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,B48)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,C48)</f>
@@ -2437,7 +2445,7 @@
       </c>
       <c r="M48" s="0" t="n">
         <f aca="false">SUM(H48:L48)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" s="0" t="n">
         <f aca="false">K50</f>
@@ -2496,7 +2504,7 @@
       </c>
       <c r="I50" s="0" t="n">
         <f aca="false">SUM(I45:I49)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J50" s="0" t="n">
         <f aca="false">SUM(J45:J49)</f>
@@ -2833,7 +2841,7 @@
       </c>
       <c r="I58" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,B58)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,C58)</f>
@@ -2849,11 +2857,11 @@
       </c>
       <c r="M58" s="0" t="n">
         <f aca="false">SUM(H58:L58)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N58" s="0" t="n">
         <f aca="false">I62</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,7 +3006,7 @@
       </c>
       <c r="I62" s="0" t="n">
         <f aca="false">SUM(I57:I61)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J62" s="0" t="n">
         <f aca="false">SUM(J57:J61)</f>
@@ -5408,7 +5416,7 @@
       </c>
       <c r="N119" s="0" t="n">
         <f aca="false">J122</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5482,7 +5490,7 @@
       </c>
       <c r="J121" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,C121)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,D121)</f>
@@ -5494,7 +5502,7 @@
       </c>
       <c r="M121" s="0" t="n">
         <f aca="false">SUM(H121:L121)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N121" s="0" t="n">
         <f aca="false">L122</f>
@@ -5512,7 +5520,7 @@
       </c>
       <c r="J122" s="0" t="n">
         <f aca="false">SUM(J117:J121)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K122" s="0" t="n">
         <f aca="false">SUM(K117:K121)</f>
@@ -10259,15 +10267,15 @@
       </c>
       <c r="L235" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,E235)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M235" s="0" t="n">
         <f aca="false">SUM(H235:L235)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N235" s="0" t="n">
         <f aca="false">L236</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10289,7 +10297,7 @@
       </c>
       <c r="L236" s="0" t="n">
         <f aca="false">SUM(L231:L235)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10461,7 +10469,7 @@
       </c>
       <c r="K240" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,D240)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L240" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,E240)</f>
@@ -10469,11 +10477,11 @@
       </c>
       <c r="M240" s="0" t="n">
         <f aca="false">SUM(H240:L240)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N240" s="0" t="n">
         <f aca="false">K242</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10536,7 +10544,7 @@
       </c>
       <c r="K242" s="0" t="n">
         <f aca="false">SUM(K237:K241)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L242" s="0" t="n">
         <f aca="false">SUM(L237:L241)</f>
@@ -10724,7 +10732,7 @@
       </c>
       <c r="N246" s="0" t="n">
         <f aca="false">K248</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10757,7 +10765,7 @@
       </c>
       <c r="K247" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,D247)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L247" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,E247)</f>
@@ -10765,7 +10773,7 @@
       </c>
       <c r="M247" s="0" t="n">
         <f aca="false">SUM(H247:L247)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N247" s="0" t="n">
         <f aca="false">L248</f>
@@ -10787,7 +10795,7 @@
       </c>
       <c r="K248" s="0" t="n">
         <f aca="false">SUM(K243:K247)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L248" s="0" t="n">
         <f aca="false">SUM(L243:L247)</f>
@@ -10922,11 +10930,11 @@
       </c>
       <c r="L251" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,E251)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M251" s="0" t="n">
         <f aca="false">SUM(H251:L251)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N251" s="0" t="n">
         <f aca="false">J254</f>
@@ -11020,7 +11028,7 @@
       </c>
       <c r="N253" s="0" t="n">
         <f aca="false">L254</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11042,7 +11050,7 @@
       </c>
       <c r="L254" s="0" t="n">
         <f aca="false">SUM(L249:L253)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11218,11 +11226,11 @@
       </c>
       <c r="L258" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,E258)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M258" s="0" t="n">
         <f aca="false">SUM(H258:L258)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N258" s="0" t="n">
         <f aca="false">K260</f>
@@ -11271,7 +11279,7 @@
       </c>
       <c r="N259" s="0" t="n">
         <f aca="false">L260</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11293,7 +11301,7 @@
       </c>
       <c r="L260" s="0" t="n">
         <f aca="false">SUM(L255:L259)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11514,15 +11522,15 @@
       </c>
       <c r="L265" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,E265)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M265" s="0" t="n">
         <f aca="false">SUM(H265:L265)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N265" s="0" t="n">
         <f aca="false">L266</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11544,7 +11552,7 @@
       </c>
       <c r="L266" s="0" t="n">
         <f aca="false">SUM(L261:L265)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12346,7 +12354,7 @@
       </c>
       <c r="O285" s="2" t="n">
         <f aca="false">COUNTIF(M285:N289,5)&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12436,7 +12444,7 @@
       </c>
       <c r="N287" s="0" t="n">
         <f aca="false">J290</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12465,7 +12473,7 @@
       </c>
       <c r="J288" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,C288)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K288" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,D288)</f>
@@ -12477,7 +12485,7 @@
       </c>
       <c r="M288" s="0" t="n">
         <f aca="false">SUM(H288:L288)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N288" s="0" t="n">
         <f aca="false">K290</f>
@@ -12540,7 +12548,7 @@
       </c>
       <c r="J290" s="0" t="n">
         <f aca="false">SUM(J285:J289)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K290" s="0" t="n">
         <f aca="false">SUM(K285:K289)</f>
@@ -12593,7 +12601,7 @@
       </c>
       <c r="N291" s="0" t="n">
         <f aca="false">H296</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O291" s="2" t="n">
         <f aca="false">COUNTIF(M291:N295,5)&gt;0</f>
@@ -12708,7 +12716,7 @@
       </c>
       <c r="H294" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,A294)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,B294)</f>
@@ -12728,7 +12736,7 @@
       </c>
       <c r="M294" s="0" t="n">
         <f aca="false">SUM(H294:L294)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N294" s="0" t="n">
         <f aca="false">K296</f>
@@ -12783,7 +12791,7 @@
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H296" s="0" t="n">
         <f aca="false">SUM(H291:H295)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I296" s="0" t="n">
         <f aca="false">SUM(I291:I295)</f>
@@ -13987,7 +13995,7 @@
       </c>
       <c r="N324" s="0" t="n">
         <f aca="false">K326</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14020,7 +14028,7 @@
       </c>
       <c r="K325" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,D325)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L325" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,E325)</f>
@@ -14028,7 +14036,7 @@
       </c>
       <c r="M325" s="0" t="n">
         <f aca="false">SUM(H325:L325)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N325" s="0" t="n">
         <f aca="false">L326</f>
@@ -14050,7 +14058,7 @@
       </c>
       <c r="K326" s="0" t="n">
         <f aca="false">SUM(K321:K325)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L326" s="0" t="n">
         <f aca="false">SUM(L321:L325)</f>
@@ -14383,7 +14391,7 @@
       </c>
       <c r="J334" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,C334)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K334" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,D334)</f>
@@ -14395,7 +14403,7 @@
       </c>
       <c r="M334" s="0" t="n">
         <f aca="false">SUM(H334:L334)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N334" s="0" t="n">
         <f aca="false">I338</f>
@@ -14444,7 +14452,7 @@
       </c>
       <c r="N335" s="0" t="n">
         <f aca="false">J338</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14548,7 +14556,7 @@
       </c>
       <c r="J338" s="0" t="n">
         <f aca="false">SUM(J333:J337)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K338" s="0" t="n">
         <f aca="false">SUM(K333:K337)</f>
@@ -14695,7 +14703,7 @@
       </c>
       <c r="N341" s="0" t="n">
         <f aca="false">J344</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14769,7 +14777,7 @@
       </c>
       <c r="J343" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,C343)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K343" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,D343)</f>
@@ -14781,7 +14789,7 @@
       </c>
       <c r="M343" s="0" t="n">
         <f aca="false">SUM(H343:L343)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N343" s="0" t="n">
         <f aca="false">L344</f>
@@ -14799,7 +14807,7 @@
       </c>
       <c r="J344" s="0" t="n">
         <f aca="false">SUM(J339:J343)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K344" s="0" t="n">
         <f aca="false">SUM(K339:K343)</f>
@@ -14828,7 +14836,7 @@
       </c>
       <c r="H345" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,A345)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,B345)</f>
@@ -14848,11 +14856,11 @@
       </c>
       <c r="M345" s="0" t="n">
         <f aca="false">SUM(H345:L345)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N345" s="0" t="n">
         <f aca="false">H350</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O345" s="2" t="n">
         <f aca="false">COUNTIF(M345:N349,5)&gt;0</f>
@@ -15042,7 +15050,7 @@
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H350" s="0" t="n">
         <f aca="false">SUM(H345:H349)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I350" s="0" t="n">
         <f aca="false">SUM(I345:I349)</f>
@@ -16609,7 +16617,7 @@
       </c>
       <c r="N387" s="0" t="n">
         <f aca="false">H392</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O387" s="2" t="n">
         <f aca="false">COUNTIF(M387:N391,5)&gt;0</f>
@@ -16769,7 +16777,7 @@
       </c>
       <c r="H391" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,A391)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,B391)</f>
@@ -16789,7 +16797,7 @@
       </c>
       <c r="M391" s="0" t="n">
         <f aca="false">SUM(H391:L391)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N391" s="0" t="n">
         <f aca="false">L392</f>
@@ -16799,7 +16807,7 @@
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H392" s="0" t="n">
         <f aca="false">SUM(H387:H391)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I392" s="0" t="n">
         <f aca="false">SUM(I387:I391)</f>
@@ -18444,7 +18452,7 @@
       </c>
       <c r="J431" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,C431)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K431" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,D431)</f>
@@ -18456,11 +18464,11 @@
       </c>
       <c r="M431" s="0" t="n">
         <f aca="false">SUM(H431:L431)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N431" s="0" t="n">
         <f aca="false">J434</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18564,7 +18572,7 @@
       </c>
       <c r="J434" s="0" t="n">
         <f aca="false">SUM(J429:J433)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K434" s="0" t="n">
         <f aca="false">SUM(K429:K433)</f>
@@ -20111,7 +20119,7 @@
       </c>
       <c r="K471" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,D471)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L471" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,E471)</f>
@@ -20119,7 +20127,7 @@
       </c>
       <c r="M471" s="0" t="n">
         <f aca="false">SUM(H471:L471)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N471" s="0" t="n">
         <f aca="false">H476</f>
@@ -20262,7 +20270,7 @@
       </c>
       <c r="N474" s="0" t="n">
         <f aca="false">K476</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20325,7 +20333,7 @@
       </c>
       <c r="K476" s="0" t="n">
         <f aca="false">SUM(K471:K475)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L476" s="0" t="n">
         <f aca="false">SUM(L471:L475)</f>
@@ -20550,15 +20558,15 @@
       </c>
       <c r="L481" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,E481)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M481" s="0" t="n">
         <f aca="false">SUM(H481:L481)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N481" s="0" t="n">
         <f aca="false">L482</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20580,7 +20588,7 @@
       </c>
       <c r="L482" s="0" t="n">
         <f aca="false">SUM(L477:L481)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21629,7 +21637,7 @@
       </c>
       <c r="N507" s="0" t="n">
         <f aca="false">H512</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O507" s="2" t="n">
         <f aca="false">COUNTIF(M507:N511,5)&gt;0</f>
@@ -21744,7 +21752,7 @@
       </c>
       <c r="H510" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,A510)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,B510)</f>
@@ -21764,7 +21772,7 @@
       </c>
       <c r="M510" s="0" t="n">
         <f aca="false">SUM(H510:L510)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N510" s="0" t="n">
         <f aca="false">K512</f>
@@ -21819,7 +21827,7 @@
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H512" s="0" t="n">
         <f aca="false">SUM(H507:H511)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I512" s="0" t="n">
         <f aca="false">SUM(I507:I511)</f>
@@ -25143,7 +25151,7 @@
       </c>
       <c r="N591" s="0" t="n">
         <f aca="false">H596</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O591" s="2" t="n">
         <f aca="false">COUNTIF(M591:N595,5)&gt;0</f>
@@ -25168,7 +25176,7 @@
       </c>
       <c r="H592" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,A592)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592" s="1" t="n">
         <f aca="false">COUNTIF(Numbers!$B:$B,B592)</f>
@@ -25188,7 +25196,7 @@
       </c>
       <c r="M592" s="0" t="n">
         <f aca="false">SUM(H592:L592)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N592" s="0" t="n">
         <f aca="false">I596</f>
@@ -25333,7 +25341,7 @@
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H596" s="0" t="n">
         <f aca="false">SUM(H591:H595)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I596" s="0" t="n">
         <f aca="false">SUM(I591:I595)</f>
@@ -25605,7 +25613,7 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="R7:S7"/>
     <mergeCell ref="R15:U15"/>
     <mergeCell ref="Q18:U18"/>
   </mergeCells>
@@ -25632,10 +25640,13 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.89"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -25643,12 +25654,18 @@
       </c>
       <c r="B1" s="0" t="n">
         <f aca="false">INDEX(Numbers!A2:A101,FindWinner!R3,1)</f>
+        <v>30</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="0" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">SUM(A19:E23)</f>
@@ -25657,16 +25674,23 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">B2*B1</f>
+        <v>6690</v>
+      </c>
+      <c r="D3" s="19" t="n">
+        <f aca="false">B2*D1</f>
         <v>18063</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25686,23 +25710,18 @@
         <v>18</v>
       </c>
       <c r="H10" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,A10)</f>
         <v>1</v>
       </c>
       <c r="I10" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,B10)</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,C10)</f>
         <v>1</v>
       </c>
       <c r="K10" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,D10)</f>
         <v>1</v>
       </c>
       <c r="L10" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,E10)</f>
         <v>1</v>
       </c>
     </row>
@@ -25723,23 +25742,18 @@
         <v>34</v>
       </c>
       <c r="H11" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,A11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,B11)</f>
         <v>1</v>
       </c>
       <c r="J11" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,C11)</f>
         <v>1</v>
       </c>
       <c r="K11" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,D11)</f>
         <v>1</v>
       </c>
       <c r="L11" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,E11)</f>
         <v>1</v>
       </c>
     </row>
@@ -25760,23 +25774,18 @@
         <v>60</v>
       </c>
       <c r="H12" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,A12)</f>
         <v>1</v>
       </c>
       <c r="I12" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,B12)</f>
         <v>1</v>
       </c>
       <c r="J12" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,C12)</f>
         <v>1</v>
       </c>
       <c r="K12" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,D12)</f>
         <v>0</v>
       </c>
       <c r="L12" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,E12)</f>
         <v>1</v>
       </c>
     </row>
@@ -25797,23 +25806,18 @@
         <v>16</v>
       </c>
       <c r="H13" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,A13)</f>
         <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,B13)</f>
         <v>1</v>
       </c>
       <c r="J13" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,C13)</f>
         <v>1</v>
       </c>
       <c r="K13" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,D13)</f>
         <v>0</v>
       </c>
       <c r="L13" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,E13)</f>
         <v>1</v>
       </c>
     </row>
@@ -25834,29 +25838,24 @@
         <v>72</v>
       </c>
       <c r="H14" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,A14)</f>
         <v>1</v>
       </c>
       <c r="I14" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,B14)</f>
         <v>1</v>
       </c>
       <c r="J14" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,C14)</f>
         <v>1</v>
       </c>
       <c r="K14" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,D14)</f>
         <v>1</v>
       </c>
       <c r="L14" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,E14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25988,10 +25987,13 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.89"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -25999,30 +26001,43 @@
       </c>
       <c r="B1" s="0" t="n">
         <f aca="false">INDEX(Numbers!A2:A101,FindWinner!R3,1)</f>
-        <v>81</v>
+        <v>30</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">SUM(A19:E23)</f>
-        <v>135</v>
+        <v>914</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">B2*B1</f>
-        <v>10935</v>
+        <v>27420</v>
+      </c>
+      <c r="D3" s="19" t="n">
+        <f aca="false">D1*B2</f>
+        <v>12796</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26042,23 +26057,18 @@
         <v>14</v>
       </c>
       <c r="H10" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,A10)</f>
         <v>1</v>
       </c>
       <c r="I10" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,B10)</f>
         <v>1</v>
       </c>
       <c r="J10" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,C10)</f>
         <v>1</v>
       </c>
       <c r="K10" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,D10)</f>
         <v>1</v>
       </c>
       <c r="L10" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,E10)</f>
         <v>1</v>
       </c>
     </row>
@@ -26079,24 +26089,19 @@
         <v>32</v>
       </c>
       <c r="H11" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,A11)</f>
         <v>1</v>
       </c>
       <c r="I11" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,B11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,C11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,D11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,E11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26116,24 +26121,19 @@
         <v>46</v>
       </c>
       <c r="H12" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,A12)</f>
         <v>0</v>
       </c>
       <c r="I12" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,B12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,C12)</f>
         <v>0</v>
       </c>
       <c r="K12" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,D12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,E12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26153,24 +26153,19 @@
         <v>77</v>
       </c>
       <c r="H13" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,A13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,B13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,C13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,D13)</f>
         <v>1</v>
       </c>
       <c r="L13" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,E13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26190,29 +26185,24 @@
         <v>96</v>
       </c>
       <c r="H14" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,A14)</f>
         <v>0</v>
       </c>
       <c r="I14" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,B14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,C14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,D14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1" t="n">
-        <f aca="false">COUNTIF(Numbers!$B:$B,E14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26244,19 +26234,19 @@
       </c>
       <c r="B20" s="2" t="n">
         <f aca="false">IF(NOT(I11),B11,0)</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C20" s="2" t="n">
         <f aca="false">IF(NOT(J11),C11,0)</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D20" s="2" t="n">
         <f aca="false">IF(NOT(K11),D11,0)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2" t="n">
         <f aca="false">IF(NOT(L11),E11,0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26266,7 +26256,7 @@
       </c>
       <c r="B21" s="2" t="n">
         <f aca="false">IF(NOT(I12),B12,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">IF(NOT(J12),C12,0)</f>
@@ -26274,25 +26264,25 @@
       </c>
       <c r="D21" s="2" t="n">
         <f aca="false">IF(NOT(K12),D12,0)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E21" s="2" t="n">
         <f aca="false">IF(NOT(L12),E12,0)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <f aca="false">IF(NOT(H13),A13,0)</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="n">
         <f aca="false">IF(NOT(I13),B13,0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2" t="n">
         <f aca="false">IF(NOT(J13),C13,0)</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2" t="n">
         <f aca="false">IF(NOT(K13),D13,0)</f>
@@ -26300,7 +26290,7 @@
       </c>
       <c r="E22" s="2" t="n">
         <f aca="false">IF(NOT(L13),E13,0)</f>
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26310,15 +26300,15 @@
       </c>
       <c r="B23" s="2" t="n">
         <f aca="false">IF(NOT(I14),B14,0)</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C23" s="2" t="n">
         <f aca="false">IF(NOT(J14),C14,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D23" s="2" t="n">
         <f aca="false">IF(NOT(K14),D14,0)</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2" t="n">
         <f aca="false">IF(NOT(L14),E14,0)</f>
@@ -26344,21 +26334,21 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="n">
+      <c r="A2" s="20" t="n">
         <v>62</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -27101,7 +27091,7 @@
       </c>
       <c r="B84" s="0" t="n">
         <f aca="false">IF((ROW()-1)&lt;=FindWinner!$R$3,A84,-1)</f>
-        <v>81</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
